--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,41 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BSP</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AAP</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Congress</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>AAP</t>
         </is>
       </c>
